--- a/data/turning/GIIFM19/GIIFM19Frames_20201116.xlsx
+++ b/data/turning/GIIFM19/GIIFM19Frames_20201116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_R_WD\git_projects\gii_analysis\data\turning\GIIFM19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79096C1-8548-4C06-92A2-DB975B3EBCD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1960A4-3837-4F37-83D0-289C8A0EA654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39195" yWindow="11595" windowWidth="19770" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="3090" windowWidth="16440" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>GIIFM19</t>
   </si>
@@ -44,27 +44,9 @@
     <t>end</t>
   </si>
   <si>
-    <t>video2_coords</t>
-  </si>
-  <si>
     <t>session</t>
   </si>
   <si>
-    <t>video3_coords</t>
-  </si>
-  <si>
-    <t>video4_coords</t>
-  </si>
-  <si>
-    <t>video5_coords</t>
-  </si>
-  <si>
-    <t>video1_coords</t>
-  </si>
-  <si>
-    <t>video0_coords</t>
-  </si>
-  <si>
     <t>animal</t>
   </si>
   <si>
@@ -72,6 +54,27 @@
   </si>
   <si>
     <t>intensity</t>
+  </si>
+  <si>
+    <t>stim_duration</t>
+  </si>
+  <si>
+    <t>video0coords.dat</t>
+  </si>
+  <si>
+    <t>video1coords.dat</t>
+  </si>
+  <si>
+    <t>video2coords.dat</t>
+  </si>
+  <si>
+    <t>video3coords.dat</t>
+  </si>
+  <si>
+    <t>video4coords.dat</t>
+  </si>
+  <si>
+    <t>video5coords.dat</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,562 +412,625 @@
     <col min="3" max="4" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1441</v>
+      </c>
+      <c r="E2">
+        <v>1691</v>
+      </c>
+      <c r="F2">
         <v>0.5</v>
       </c>
-      <c r="E2">
-        <v>1441</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F6" si="0">E2+250</f>
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>5148</v>
+      </c>
+      <c r="E3">
+        <v>5398</v>
+      </c>
+      <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="E3">
-        <v>5148</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
+        <v>6627</v>
+      </c>
+      <c r="E4">
+        <v>6877</v>
+      </c>
+      <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="E4">
-        <v>6627</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>6877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
+        <v>8124</v>
+      </c>
+      <c r="E5">
+        <v>8374</v>
+      </c>
+      <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="E5">
-        <v>8124</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>8374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
+        <v>9700</v>
+      </c>
+      <c r="E6">
+        <v>9950</v>
+      </c>
+      <c r="F6">
         <v>0.5</v>
       </c>
-      <c r="E6">
-        <v>9700</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>9950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>422</v>
       </c>
       <c r="E7">
-        <v>422</v>
+        <v>672</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F11" si="1">E7+250</f>
-        <v>672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2660</v>
       </c>
       <c r="E8">
-        <v>2660</v>
+        <v>2910</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4161</v>
       </c>
       <c r="E9">
-        <v>4161</v>
+        <v>4411</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5681</v>
       </c>
       <c r="E10">
-        <v>5681</v>
+        <v>5931</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>5931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>7185</v>
       </c>
       <c r="E11">
-        <v>7185</v>
+        <v>7435</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>7435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
+        <v>667</v>
+      </c>
+      <c r="E12">
+        <v>917</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>1869</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F15" si="2">E12+250</f>
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
+        <v>1869</v>
+      </c>
+      <c r="E13">
+        <v>2119</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>3625</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
+        <v>3625</v>
+      </c>
+      <c r="E14">
+        <v>3875</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>4914</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>5164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
+        <v>4914</v>
+      </c>
+      <c r="E15">
+        <v>5164</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="E15">
-        <v>6319</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>6569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
+        <v>6319</v>
+      </c>
+      <c r="E16">
+        <v>6569</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>8359</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16" si="3">E16+250</f>
-        <v>8609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>567</v>
       </c>
       <c r="E17">
-        <v>567</v>
+        <v>818</v>
       </c>
       <c r="F17">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>2458</v>
       </c>
       <c r="E18">
-        <v>2458</v>
+        <v>2708</v>
       </c>
       <c r="F18">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>3990</v>
       </c>
       <c r="E19">
-        <v>3990</v>
+        <v>4240</v>
       </c>
       <c r="F19">
-        <f>E19+250</f>
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>5473</v>
       </c>
       <c r="E20">
-        <v>5473</v>
+        <v>5723</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F21" si="4">E20+250</f>
-        <v>5723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>7320</v>
       </c>
       <c r="E21">
-        <v>7320</v>
+        <v>7570</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
-        <v>7570</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
+        <v>747</v>
+      </c>
+      <c r="E22">
+        <v>997</v>
+      </c>
+      <c r="F22">
         <v>15</v>
       </c>
-      <c r="E22">
-        <v>747</v>
-      </c>
-      <c r="F22">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
+        <v>2709</v>
+      </c>
+      <c r="E23">
+        <v>2959</v>
+      </c>
+      <c r="F23">
         <v>15</v>
       </c>
-      <c r="E23">
-        <v>2709</v>
-      </c>
-      <c r="F23">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
+        <v>4073</v>
+      </c>
+      <c r="E24">
+        <v>4324</v>
+      </c>
+      <c r="F24">
         <v>15</v>
       </c>
-      <c r="E24">
-        <v>4073</v>
-      </c>
-      <c r="F24">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
+        <v>5622</v>
+      </c>
+      <c r="E25">
+        <v>5873</v>
+      </c>
+      <c r="F25">
         <v>15</v>
       </c>
-      <c r="E25">
-        <v>5622</v>
-      </c>
-      <c r="F25">
-        <v>5873</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
+        <v>7126</v>
+      </c>
+      <c r="E26">
+        <v>7376</v>
+      </c>
+      <c r="F26">
         <v>15</v>
       </c>
-      <c r="E26">
-        <v>7126</v>
-      </c>
-      <c r="F26">
-        <v>7376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
+        <v>1545</v>
+      </c>
+      <c r="E27">
+        <v>2296</v>
+      </c>
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="E27">
-        <v>1545</v>
-      </c>
-      <c r="F27">
-        <v>2296</v>
+      <c r="G27">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
